--- a/smFISH_Database.xlsx
+++ b/smFISH_Database.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="25280" windowHeight="15360" tabRatio="847"/>
   </bookViews>
   <sheets>
-    <sheet name="Josh" sheetId="7" r:id="rId1"/>
+    <sheet name="Table" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -1205,7 +1205,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1218,15 +1227,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1429,23 +1429,6 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
@@ -1528,6 +1511,23 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
@@ -1624,8 +1624,8 @@
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" name="Column1" dataDxfId="6" dataCellStyle="Hyperlink"/>
-    <tableColumn id="17" name="Column17" dataDxfId="0" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="5" dataDxfId="4" dataCellStyle="Hyperlink"/>
+    <tableColumn id="17" name="Column17" dataDxfId="5" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="4" dataDxfId="3" dataCellStyle="Hyperlink"/>
     <tableColumn id="3" name="Column3"/>
     <tableColumn id="4" name="Column4"/>
     <tableColumn id="13" name="Column13"/>
@@ -1635,9 +1635,9 @@
     <tableColumn id="7" name="Column7"/>
     <tableColumn id="8" name="Column8"/>
     <tableColumn id="9" name="Column9"/>
-    <tableColumn id="10" name="Column10" dataDxfId="3"/>
+    <tableColumn id="10" name="Column10" dataDxfId="2"/>
     <tableColumn id="11" name="Column11"/>
-    <tableColumn id="12" name="Column12" headerRowDxfId="2" dataDxfId="1"/>
+    <tableColumn id="12" name="Column12" headerRowDxfId="1" dataDxfId="0"/>
     <tableColumn id="15" name="Column15"/>
     <tableColumn id="16" name="Column16"/>
   </tableColumns>
@@ -1987,30 +1987,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21">
-      <c r="E2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="26" t="s">
+      <c r="E2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="21" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="P2" s="25"/>
+      <c r="P2" s="20"/>
       <c r="Q2" s="13" t="s">
         <v>213</v>
       </c>

--- a/smFISH_Database.xlsx
+++ b/smFISH_Database.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25280" windowHeight="15360" tabRatio="847"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25280" windowHeight="15360" tabRatio="847" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="7" r:id="rId1"/>
+    <sheet name="NMJ" sheetId="7" r:id="rId1"/>
+    <sheet name="Brain" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="256">
   <si>
     <t>Nerve</t>
   </si>
@@ -748,6 +749,45 @@
   </si>
   <si>
     <t>Gene Function</t>
+  </si>
+  <si>
+    <t>VNC</t>
+  </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>Neuropil</t>
+  </si>
+  <si>
+    <t>Abdomen</t>
+  </si>
+  <si>
+    <t>Thorax</t>
+  </si>
+  <si>
+    <t>Mushroom bodies</t>
+  </si>
+  <si>
+    <t>Central complex</t>
+  </si>
+  <si>
+    <t>Optic Lobe</t>
+  </si>
+  <si>
+    <t>Brain</t>
+  </si>
+  <si>
+    <t>Neuroblast lineage</t>
+  </si>
+  <si>
+    <t>Neuroblast</t>
+  </si>
+  <si>
+    <t>Ganglion mother cell</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -888,7 +928,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -982,6 +1022,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1172,7 +1264,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1227,6 +1319,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1969,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5166,4 +5315,601 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AE10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="27" width="7.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:31">
+      <c r="D2" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="D3" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="43"/>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="D4" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="K4" s="31"/>
+      <c r="L4" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="M4" s="23"/>
+      <c r="N4" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="O4" s="23"/>
+      <c r="P4" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="S4" s="23"/>
+      <c r="T4" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="U4" s="23"/>
+      <c r="V4" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="W4" s="23"/>
+      <c r="X4" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE4" s="29"/>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="47">
+        <v>1</v>
+      </c>
+      <c r="E7" s="47">
+        <v>1</v>
+      </c>
+      <c r="F7" s="47">
+        <v>1</v>
+      </c>
+      <c r="G7" s="47">
+        <v>1</v>
+      </c>
+      <c r="H7" s="47">
+        <v>1</v>
+      </c>
+      <c r="I7" s="47">
+        <v>1</v>
+      </c>
+      <c r="J7" s="47">
+        <v>1</v>
+      </c>
+      <c r="K7" s="47">
+        <v>1</v>
+      </c>
+      <c r="L7" s="47">
+        <v>1</v>
+      </c>
+      <c r="M7" s="47">
+        <v>1</v>
+      </c>
+      <c r="N7" s="47">
+        <v>0</v>
+      </c>
+      <c r="O7" s="47">
+        <v>1</v>
+      </c>
+      <c r="P7" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="47">
+        <v>0</v>
+      </c>
+      <c r="R7" s="47">
+        <v>0</v>
+      </c>
+      <c r="S7" s="47">
+        <v>0</v>
+      </c>
+      <c r="T7" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="U7" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="V7" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="W7" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="X7" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y7" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z7" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA7" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB7" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC7" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD7" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE7" s="47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="48">
+        <v>1</v>
+      </c>
+      <c r="E8" s="48">
+        <v>1</v>
+      </c>
+      <c r="F8" s="48">
+        <v>1</v>
+      </c>
+      <c r="G8" s="48">
+        <v>1</v>
+      </c>
+      <c r="H8" s="48">
+        <v>1</v>
+      </c>
+      <c r="I8" s="48">
+        <v>1</v>
+      </c>
+      <c r="J8" s="48">
+        <v>1</v>
+      </c>
+      <c r="K8" s="48">
+        <v>1</v>
+      </c>
+      <c r="L8" s="48">
+        <v>1</v>
+      </c>
+      <c r="M8" s="48">
+        <v>1</v>
+      </c>
+      <c r="N8" s="48">
+        <v>0</v>
+      </c>
+      <c r="O8" s="48">
+        <v>1</v>
+      </c>
+      <c r="P8" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="48">
+        <v>0</v>
+      </c>
+      <c r="R8" s="48">
+        <v>0</v>
+      </c>
+      <c r="S8" s="48">
+        <v>0</v>
+      </c>
+      <c r="T8" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="U8" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="V8" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="W8" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="X8" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y8" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z8" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA8" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB8" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC8" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD8" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE8" s="48" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D7:D9)</f>
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f>SUM(E7:E9)</f>
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f>SUM(F7:F9)</f>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f>SUM(G7:G9)</f>
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <f>SUM(H7:H9)</f>
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <f>SUM(I7:I9)</f>
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <f>SUM(J7:J9)</f>
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <f>SUM(K7:K9)</f>
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <f>SUM(L7:L9)</f>
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f>SUM(M7:M9)</f>
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <f>SUM(N7:N9)</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>SUM(O7:O9)</f>
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <f>SUM(P7:P9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f>SUM(Q7:Q9)</f>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f>SUM(R7:R9)</f>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f>SUM(S7:S9)</f>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f>SUM(T7:T9)</f>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f>SUM(U7:U9)</f>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f>SUM(V7:V9)</f>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f>SUM(W7:W9)</f>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f>SUM(X7:X9)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f>SUM(Y7:Y9)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f>SUM(Z7:Z9)</f>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f>SUM(AA7:AA9)</f>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f>SUM(AB7:AB9)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f>SUM(AC7:AC9)</f>
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <f>SUM(AD7:AD9)</f>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <f>SUM(AE7:AE9)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="X2:AE2"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="L2:W2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="A8" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>